--- a/image/medicationdispense.xlsx
+++ b/image/medicationdispense.xlsx
@@ -1189,45 +1189,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.65625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="132.88671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.41796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="133.1015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="70.921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="72.203125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/image/medicationdispense.xlsx
+++ b/image/medicationdispense.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="330">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -601,10 +601,6 @@
   </si>
   <si>
     <t>MedicationDispense.performer.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -848,7 +844,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Location)
+    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Location|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1189,45 +1185,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.4375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="133.1015625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="46.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="132.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.62109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.41796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="72.203125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="70.921875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3532,13 +3528,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3589,7 +3585,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3607,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3621,7 +3617,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3650,7 +3646,7 @@
         <v>96</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>98</v>
@@ -3703,7 +3699,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3721,7 +3717,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3735,11 +3731,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3761,10 +3757,10 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>98</v>
@@ -3819,7 +3815,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3851,7 +3847,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3877,14 +3873,14 @@
         <v>141</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3912,11 +3908,11 @@
         <v>135</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3933,7 +3929,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3951,7 +3947,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -3965,7 +3961,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3988,13 +3984,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4045,7 +4041,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -4060,10 +4056,10 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>41</v>
@@ -4077,7 +4073,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4100,13 +4096,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4157,7 +4153,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4175,7 +4171,7 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>41</v>
@@ -4189,7 +4185,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4212,16 +4208,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4271,7 +4267,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4286,24 +4282,24 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4329,10 +4325,10 @@
         <v>141</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4362,11 +4358,11 @@
         <v>135</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4383,7 +4379,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4401,21 +4397,21 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4438,13 +4434,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4495,7 +4491,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4513,21 +4509,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4550,13 +4546,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4607,7 +4603,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4625,21 +4621,21 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4662,13 +4658,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4719,7 +4715,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4737,21 +4733,21 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4774,13 +4770,13 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4831,7 +4827,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4846,24 +4842,24 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4886,13 +4882,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4943,7 +4939,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4961,21 +4957,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4998,13 +4994,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5055,7 +5051,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5073,13 +5069,13 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>41</v>
@@ -5087,7 +5083,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5110,13 +5106,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5167,7 +5163,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5182,24 +5178,24 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5222,16 +5218,16 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5281,7 +5277,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5299,7 +5295,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5313,7 +5309,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5339,10 +5335,10 @@
         <v>182</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5393,7 +5389,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5411,13 +5407,13 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5425,7 +5421,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5448,13 +5444,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5505,7 +5501,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5523,7 +5519,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5537,7 +5533,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5566,7 +5562,7 @@
         <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>98</v>
@@ -5619,7 +5615,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5637,7 +5633,7 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -5651,11 +5647,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5677,10 +5673,10 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>98</v>
@@ -5735,7 +5731,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5767,7 +5763,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5790,13 +5786,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5847,7 +5843,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>50</v>
@@ -5865,7 +5861,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -5879,7 +5875,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5905,10 +5901,10 @@
         <v>141</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5938,11 +5934,11 @@
         <v>135</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>302</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5959,7 +5955,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5977,21 +5973,21 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6017,10 +6013,10 @@
         <v>141</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6050,11 +6046,11 @@
         <v>135</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>41</v>
       </c>
@@ -6071,7 +6067,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6089,13 +6085,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6103,7 +6099,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6126,13 +6122,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6183,7 +6179,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6201,13 +6197,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6215,11 +6211,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6238,16 +6234,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6297,7 +6293,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6315,7 +6311,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6329,7 +6325,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6352,16 +6348,16 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6411,7 +6407,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6429,7 +6425,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
